--- a/examples/resources/template.xlsx
+++ b/examples/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaohui/dev/nodejs/project/xlsxTemplater/examples/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45313A5E-68B5-0149-967D-4A76126A88ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3087F2AF-69AA-7E4C-968B-C0AEDCBBCD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{F7F913E4-68F0-DA4D-9F31-C91F90599530}"/>
   </bookViews>
@@ -118,45 +118,40 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,29 +198,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,7 +539,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="35" customHeight="1"/>
@@ -556,98 +551,98 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1"/>
     <row r="2" spans="1:9" ht="48" customHeight="1">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="27" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="35" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="35" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="35" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
